--- a/Symphony/2021/Others/d47/Not inputted imei.xlsx
+++ b/Symphony/2021/Others/d47/Not inputted imei.xlsx
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,11 +445,6 @@
         <v>350954041425368</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>350954041425541</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
